--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Icam1-Itgax.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Icam1-Itgax.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,7 +534,7 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>17.642385</v>
+        <v>18.30131666666667</v>
       </c>
       <c r="H2">
-        <v>52.927155</v>
+        <v>54.90395</v>
       </c>
       <c r="I2">
-        <v>0.04400342879047246</v>
+        <v>0.03754501421639525</v>
       </c>
       <c r="J2">
-        <v>0.04400342879047245</v>
+        <v>0.03754501421639524</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.020618</v>
+        <v>0.07093033333333333</v>
       </c>
       <c r="N2">
-        <v>0.061854</v>
+        <v>0.212791</v>
       </c>
       <c r="O2">
-        <v>0.000162696127394745</v>
+        <v>0.0008424163619759039</v>
       </c>
       <c r="P2">
-        <v>0.0001626961273947449</v>
+        <v>0.0008424163619759041</v>
       </c>
       <c r="Q2">
-        <v>0.36375069393</v>
+        <v>1.298118491605556</v>
       </c>
       <c r="R2">
-        <v>3.27375624537</v>
+        <v>11.68306642445</v>
       </c>
       <c r="S2">
-        <v>7.159187456300295E-06</v>
+        <v>3.162853428650928E-05</v>
       </c>
       <c r="T2">
-        <v>7.159187456300293E-06</v>
+        <v>3.162853428650928E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -605,46 +605,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>17.642385</v>
+        <v>18.30131666666667</v>
       </c>
       <c r="H3">
-        <v>52.927155</v>
+        <v>54.90395</v>
       </c>
       <c r="I3">
-        <v>0.04400342879047246</v>
+        <v>0.03754501421639525</v>
       </c>
       <c r="J3">
-        <v>0.04400342879047245</v>
+        <v>0.03754501421639524</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>32.34376366666667</v>
+        <v>0.020618</v>
       </c>
       <c r="N3">
-        <v>97.031291</v>
+        <v>0.061854</v>
       </c>
       <c r="O3">
-        <v>0.2552238380995986</v>
+        <v>0.00024487324019182</v>
       </c>
       <c r="P3">
-        <v>0.2552238380995985</v>
+        <v>0.00024487324019182</v>
       </c>
       <c r="Q3">
-        <v>570.621130956345</v>
+        <v>0.3773365470333334</v>
       </c>
       <c r="R3">
-        <v>5135.590178607104</v>
+        <v>3.3960289233</v>
       </c>
       <c r="S3">
-        <v>0.01123072398544676</v>
+        <v>9.193769284216651E-06</v>
       </c>
       <c r="T3">
-        <v>0.01123072398544675</v>
+        <v>9.193769284216649E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>17.642385</v>
+        <v>18.30131666666667</v>
       </c>
       <c r="H4">
-        <v>52.927155</v>
+        <v>54.90395</v>
       </c>
       <c r="I4">
-        <v>0.04400342879047246</v>
+        <v>0.03754501421639525</v>
       </c>
       <c r="J4">
-        <v>0.04400342879047245</v>
+        <v>0.03754501421639524</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.01197066666666667</v>
+        <v>13.60839533333333</v>
       </c>
       <c r="N4">
-        <v>0.035912</v>
+        <v>40.825186</v>
       </c>
       <c r="O4">
-        <v>9.446023421282504E-05</v>
+        <v>0.1616224589719941</v>
       </c>
       <c r="P4">
-        <v>9.446023421282504E-05</v>
+        <v>0.1616224589719942</v>
       </c>
       <c r="Q4">
-        <v>0.21119111004</v>
+        <v>249.0515523205223</v>
       </c>
       <c r="R4">
-        <v>1.90071999036</v>
+        <v>2241.4639708847</v>
       </c>
       <c r="S4">
-        <v>4.156574189715397E-06</v>
+        <v>0.006068117519792278</v>
       </c>
       <c r="T4">
-        <v>4.156574189715396E-06</v>
+        <v>0.006068117519792278</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.642385</v>
+        <v>18.30131666666667</v>
       </c>
       <c r="H5">
-        <v>52.927155</v>
+        <v>54.90395</v>
       </c>
       <c r="I5">
-        <v>0.04400342879047246</v>
+        <v>0.03754501421639525</v>
       </c>
       <c r="J5">
-        <v>0.04400342879047245</v>
+        <v>0.03754501421639524</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>40.17406266666666</v>
+        <v>0.005178666666666666</v>
       </c>
       <c r="N5">
-        <v>120.522188</v>
+        <v>0.015536</v>
       </c>
       <c r="O5">
-        <v>0.3170125335910596</v>
+        <v>6.150532964109216E-05</v>
       </c>
       <c r="P5">
-        <v>0.3170125335910596</v>
+        <v>6.150532964109217E-05</v>
       </c>
       <c r="Q5">
-        <v>708.76628057946</v>
+        <v>0.09477641857777779</v>
       </c>
       <c r="R5">
-        <v>6378.89652521514</v>
+        <v>0.8529877672</v>
       </c>
       <c r="S5">
-        <v>0.01394963844756145</v>
+        <v>2.309218475758881E-06</v>
       </c>
       <c r="T5">
-        <v>0.01394963844756144</v>
+        <v>2.309218475758881E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.642385</v>
+        <v>18.30131666666667</v>
       </c>
       <c r="H6">
-        <v>52.927155</v>
+        <v>54.90395</v>
       </c>
       <c r="I6">
-        <v>0.04400342879047246</v>
+        <v>0.03754501421639525</v>
       </c>
       <c r="J6">
-        <v>0.04400342879047245</v>
+        <v>0.03754501421639524</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,33 +809,33 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>54.17663333333333</v>
+        <v>59.21111933333333</v>
       </c>
       <c r="N6">
-        <v>162.5299</v>
+        <v>177.633358</v>
       </c>
       <c r="O6">
-        <v>0.4275064719477343</v>
+        <v>0.7032310915965587</v>
       </c>
       <c r="P6">
-        <v>0.4275064719477343</v>
+        <v>0.7032310915965588</v>
       </c>
       <c r="Q6">
-        <v>955.8050232705001</v>
+        <v>1083.641445107122</v>
       </c>
       <c r="R6">
-        <v>8602.245209434499</v>
+        <v>9752.7730059641</v>
       </c>
       <c r="S6">
-        <v>0.01881175059581824</v>
+        <v>0.02640282133140395</v>
       </c>
       <c r="T6">
-        <v>0.01881175059581823</v>
+        <v>0.02640282133140395</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>18.78801466666667</v>
+        <v>18.30131666666667</v>
       </c>
       <c r="H7">
-        <v>56.364044</v>
+        <v>54.90395</v>
       </c>
       <c r="I7">
-        <v>0.04686084480635803</v>
+        <v>0.03754501421639525</v>
       </c>
       <c r="J7">
-        <v>0.04686084480635802</v>
+        <v>0.03754501421639524</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.020618</v>
+        <v>11.28242366666667</v>
       </c>
       <c r="N7">
-        <v>0.061854</v>
+        <v>33.847271</v>
       </c>
       <c r="O7">
-        <v>0.000162696127394745</v>
+        <v>0.1339976544996382</v>
       </c>
       <c r="P7">
-        <v>0.0001626961273947449</v>
+        <v>0.1339976544996382</v>
       </c>
       <c r="Q7">
-        <v>0.3873712863973333</v>
+        <v>206.4832082911611</v>
       </c>
       <c r="R7">
-        <v>3.486341577576</v>
+        <v>1858.34887462045</v>
       </c>
       <c r="S7">
-        <v>7.624077976440599E-06</v>
+        <v>0.005030943843152536</v>
       </c>
       <c r="T7">
-        <v>7.624077976440596E-06</v>
+        <v>0.005030943843152536</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>56.364044</v>
       </c>
       <c r="I8">
-        <v>0.04686084480635803</v>
+        <v>0.03854347152205856</v>
       </c>
       <c r="J8">
-        <v>0.04686084480635802</v>
+        <v>0.03854347152205856</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>32.34376366666667</v>
+        <v>0.07093033333333333</v>
       </c>
       <c r="N8">
-        <v>97.031291</v>
+        <v>0.212791</v>
       </c>
       <c r="O8">
-        <v>0.2552238380995986</v>
+        <v>0.0008424163619759039</v>
       </c>
       <c r="P8">
-        <v>0.2552238380995985</v>
+        <v>0.0008424163619759041</v>
       </c>
       <c r="Q8">
-        <v>607.6751061445337</v>
+        <v>1.332640142978222</v>
       </c>
       <c r="R8">
-        <v>5469.075955300804</v>
+        <v>11.993761286804</v>
       </c>
       <c r="S8">
-        <v>0.01196000466806834</v>
+        <v>3.246965105753443E-05</v>
       </c>
       <c r="T8">
-        <v>0.01196000466806833</v>
+        <v>3.246965105753443E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,10 +983,10 @@
         <v>56.364044</v>
       </c>
       <c r="I9">
-        <v>0.04686084480635803</v>
+        <v>0.03854347152205856</v>
       </c>
       <c r="J9">
-        <v>0.04686084480635802</v>
+        <v>0.03854347152205856</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -995,28 +995,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.01197066666666667</v>
+        <v>0.020618</v>
       </c>
       <c r="N9">
-        <v>0.035912</v>
+        <v>0.061854</v>
       </c>
       <c r="O9">
-        <v>9.446023421282504E-05</v>
+        <v>0.00024487324019182</v>
       </c>
       <c r="P9">
-        <v>9.446023421282504E-05</v>
+        <v>0.00024487324019182</v>
       </c>
       <c r="Q9">
-        <v>0.2249050609031111</v>
+        <v>0.3873712863973333</v>
       </c>
       <c r="R9">
-        <v>2.024145548128</v>
+        <v>3.486341577576</v>
       </c>
       <c r="S9">
-        <v>4.426486375819425E-06</v>
+        <v>9.43826475984762E-06</v>
       </c>
       <c r="T9">
-        <v>4.426486375819424E-06</v>
+        <v>9.43826475984762E-06</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>56.364044</v>
       </c>
       <c r="I10">
-        <v>0.04686084480635803</v>
+        <v>0.03854347152205856</v>
       </c>
       <c r="J10">
-        <v>0.04686084480635802</v>
+        <v>0.03854347152205856</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>40.17406266666666</v>
+        <v>13.60839533333333</v>
       </c>
       <c r="N10">
-        <v>120.522188</v>
+        <v>40.825186</v>
       </c>
       <c r="O10">
-        <v>0.3170125335910596</v>
+        <v>0.1616224589719941</v>
       </c>
       <c r="P10">
-        <v>0.3170125335910596</v>
+        <v>0.1616224589719942</v>
       </c>
       <c r="Q10">
-        <v>754.790878600919</v>
+        <v>255.6747311124649</v>
       </c>
       <c r="R10">
-        <v>6793.117907408272</v>
+        <v>2301.072580012184</v>
       </c>
       <c r="S10">
-        <v>0.014855475138281</v>
+        <v>0.006229490644712134</v>
       </c>
       <c r="T10">
-        <v>0.014855475138281</v>
+        <v>0.006229490644712135</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,45 +1107,45 @@
         <v>56.364044</v>
       </c>
       <c r="I11">
-        <v>0.04686084480635803</v>
+        <v>0.03854347152205856</v>
       </c>
       <c r="J11">
-        <v>0.04686084480635802</v>
+        <v>0.03854347152205856</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>54.17663333333333</v>
+        <v>0.005178666666666666</v>
       </c>
       <c r="N11">
-        <v>162.5299</v>
+        <v>0.015536</v>
       </c>
       <c r="O11">
-        <v>0.4275064719477343</v>
+        <v>6.150532964109216E-05</v>
       </c>
       <c r="P11">
-        <v>0.4275064719477343</v>
+        <v>6.150532964109217E-05</v>
       </c>
       <c r="Q11">
-        <v>1017.871381657289</v>
+        <v>0.0972968652871111</v>
       </c>
       <c r="R11">
-        <v>9160.842434915599</v>
+        <v>0.875671787584</v>
       </c>
       <c r="S11">
-        <v>0.02003331443565643</v>
+        <v>2.37062892147626E-06</v>
       </c>
       <c r="T11">
-        <v>0.02003331443565642</v>
+        <v>2.37062892147626E-06</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,51 +1163,51 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>44.82177033333333</v>
+        <v>18.78801466666667</v>
       </c>
       <c r="H12">
-        <v>134.465311</v>
+        <v>56.364044</v>
       </c>
       <c r="I12">
-        <v>0.1117939314398673</v>
+        <v>0.03854347152205856</v>
       </c>
       <c r="J12">
-        <v>0.1117939314398673</v>
+        <v>0.03854347152205856</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.020618</v>
+        <v>59.21111933333333</v>
       </c>
       <c r="N12">
-        <v>0.061854</v>
+        <v>177.633358</v>
       </c>
       <c r="O12">
-        <v>0.000162696127394745</v>
+        <v>0.7032310915965587</v>
       </c>
       <c r="P12">
-        <v>0.0001626961273947449</v>
+        <v>0.7032310915965588</v>
       </c>
       <c r="Q12">
-        <v>0.9241352607326666</v>
+        <v>1112.459378464417</v>
       </c>
       <c r="R12">
-        <v>8.317217346593999</v>
+        <v>10012.13440617975</v>
       </c>
       <c r="S12">
-        <v>1.818843971150004E-05</v>
+        <v>0.02710496755237812</v>
       </c>
       <c r="T12">
-        <v>1.818843971150004E-05</v>
+        <v>0.02710496755237812</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>44.82177033333333</v>
+        <v>18.78801466666667</v>
       </c>
       <c r="H13">
-        <v>134.465311</v>
+        <v>56.364044</v>
       </c>
       <c r="I13">
-        <v>0.1117939314398673</v>
+        <v>0.03854347152205856</v>
       </c>
       <c r="J13">
-        <v>0.1117939314398673</v>
+        <v>0.03854347152205856</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>32.34376366666667</v>
+        <v>11.28242366666667</v>
       </c>
       <c r="N13">
-        <v>97.031291</v>
+        <v>33.847271</v>
       </c>
       <c r="O13">
-        <v>0.2552238380995986</v>
+        <v>0.1339976544996382</v>
       </c>
       <c r="P13">
-        <v>0.2552238380995985</v>
+        <v>0.1339976544996382</v>
       </c>
       <c r="Q13">
-        <v>1449.704746782944</v>
+        <v>211.9743413248804</v>
       </c>
       <c r="R13">
-        <v>13047.3427210465</v>
+        <v>1907.769071923924</v>
       </c>
       <c r="S13">
-        <v>0.02853247625832633</v>
+        <v>0.005164734780229448</v>
       </c>
       <c r="T13">
-        <v>0.02853247625832632</v>
+        <v>0.005164734780229449</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>44.82177033333333</v>
+        <v>40.59291233333333</v>
       </c>
       <c r="H14">
-        <v>134.465311</v>
+        <v>121.778737</v>
       </c>
       <c r="I14">
-        <v>0.1117939314398673</v>
+        <v>0.08327605594715239</v>
       </c>
       <c r="J14">
-        <v>0.1117939314398673</v>
+        <v>0.08327605594715239</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.01197066666666667</v>
+        <v>0.07093033333333333</v>
       </c>
       <c r="N14">
-        <v>0.035912</v>
+        <v>0.212791</v>
       </c>
       <c r="O14">
-        <v>9.446023421282504E-05</v>
+        <v>0.0008424163619759039</v>
       </c>
       <c r="P14">
-        <v>9.446023421282504E-05</v>
+        <v>0.0008424163619759041</v>
       </c>
       <c r="Q14">
-        <v>0.5365464720702221</v>
+        <v>2.879268802774111</v>
       </c>
       <c r="R14">
-        <v>4.828918248631999</v>
+        <v>25.913419224967</v>
       </c>
       <c r="S14">
-        <v>1.056008094738237E-05</v>
+        <v>7.015311209070195E-05</v>
       </c>
       <c r="T14">
-        <v>1.056008094738237E-05</v>
+        <v>7.015311209070197E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,46 +1349,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>44.82177033333333</v>
+        <v>40.59291233333333</v>
       </c>
       <c r="H15">
-        <v>134.465311</v>
+        <v>121.778737</v>
       </c>
       <c r="I15">
-        <v>0.1117939314398673</v>
+        <v>0.08327605594715239</v>
       </c>
       <c r="J15">
-        <v>0.1117939314398673</v>
+        <v>0.08327605594715239</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>40.17406266666666</v>
+        <v>0.020618</v>
       </c>
       <c r="N15">
-        <v>120.522188</v>
+        <v>0.061854</v>
       </c>
       <c r="O15">
-        <v>0.3170125335910596</v>
+        <v>0.00024487324019182</v>
       </c>
       <c r="P15">
-        <v>0.3170125335910596</v>
+        <v>0.00024487324019182</v>
       </c>
       <c r="Q15">
-        <v>1800.672610202274</v>
+        <v>0.8369446664886666</v>
       </c>
       <c r="R15">
-        <v>16206.05349182047</v>
+        <v>7.532501998398</v>
       </c>
       <c r="S15">
-        <v>0.03544007744585755</v>
+        <v>2.039207765017449E-05</v>
       </c>
       <c r="T15">
-        <v>0.03544007744585755</v>
+        <v>2.039207765017449E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>44.82177033333333</v>
+        <v>40.59291233333333</v>
       </c>
       <c r="H16">
-        <v>134.465311</v>
+        <v>121.778737</v>
       </c>
       <c r="I16">
-        <v>0.1117939314398673</v>
+        <v>0.08327605594715239</v>
       </c>
       <c r="J16">
-        <v>0.1117939314398673</v>
+        <v>0.08327605594715239</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,43 +1429,43 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>54.17663333333333</v>
+        <v>13.60839533333333</v>
       </c>
       <c r="N16">
-        <v>162.5299</v>
+        <v>40.825186</v>
       </c>
       <c r="O16">
-        <v>0.4275064719477343</v>
+        <v>0.1616224589719941</v>
       </c>
       <c r="P16">
-        <v>0.4275064719477343</v>
+        <v>0.1616224589719942</v>
       </c>
       <c r="Q16">
-        <v>2428.292616699877</v>
+        <v>552.4043987633424</v>
       </c>
       <c r="R16">
-        <v>21854.6335502989</v>
+        <v>4971.639588870082</v>
       </c>
       <c r="S16">
-        <v>0.04779262921502458</v>
+        <v>0.01345928093566813</v>
       </c>
       <c r="T16">
-        <v>0.04779262921502458</v>
+        <v>0.01345928093566813</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
       <c r="E17">
         <v>3</v>
       </c>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.760055666666667</v>
+        <v>40.59291233333333</v>
       </c>
       <c r="H17">
-        <v>5.280167</v>
+        <v>121.778737</v>
       </c>
       <c r="I17">
-        <v>0.004389910105432695</v>
+        <v>0.08327605594715239</v>
       </c>
       <c r="J17">
-        <v>0.004389910105432695</v>
+        <v>0.08327605594715239</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1491,33 +1491,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.020618</v>
+        <v>0.005178666666666666</v>
       </c>
       <c r="N17">
-        <v>0.061854</v>
+        <v>0.015536</v>
       </c>
       <c r="O17">
-        <v>0.000162696127394745</v>
+        <v>6.150532964109216E-05</v>
       </c>
       <c r="P17">
-        <v>0.0001626961273947449</v>
+        <v>6.150532964109217E-05</v>
       </c>
       <c r="Q17">
-        <v>0.03628882773533334</v>
+        <v>0.2102171620035555</v>
       </c>
       <c r="R17">
-        <v>0.326599449618</v>
+        <v>1.891954458032</v>
       </c>
       <c r="S17">
-        <v>7.142213737649561E-07</v>
+        <v>5.121921272239641E-06</v>
       </c>
       <c r="T17">
-        <v>7.14221373764956E-07</v>
+        <v>5.121921272239642E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,7 +1526,7 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.760055666666667</v>
+        <v>40.59291233333333</v>
       </c>
       <c r="H18">
-        <v>5.280167</v>
+        <v>121.778737</v>
       </c>
       <c r="I18">
-        <v>0.004389910105432695</v>
+        <v>0.08327605594715239</v>
       </c>
       <c r="J18">
-        <v>0.004389910105432695</v>
+        <v>0.08327605594715239</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,33 +1553,33 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>32.34376366666667</v>
+        <v>59.21111933333333</v>
       </c>
       <c r="N18">
-        <v>97.031291</v>
+        <v>177.633358</v>
       </c>
       <c r="O18">
-        <v>0.2552238380995986</v>
+        <v>0.7032310915965587</v>
       </c>
       <c r="P18">
-        <v>0.2552238380995985</v>
+        <v>0.7032310915965588</v>
       </c>
       <c r="Q18">
-        <v>56.92682452284412</v>
+        <v>2403.551776256538</v>
       </c>
       <c r="R18">
-        <v>512.341420705597</v>
+        <v>21631.96598630884</v>
       </c>
       <c r="S18">
-        <v>0.001120409706020746</v>
+        <v>0.05856231172757207</v>
       </c>
       <c r="T18">
-        <v>0.001120409706020746</v>
+        <v>0.05856231172757208</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,7 +1588,7 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.760055666666667</v>
+        <v>40.59291233333333</v>
       </c>
       <c r="H19">
-        <v>5.280167</v>
+        <v>121.778737</v>
       </c>
       <c r="I19">
-        <v>0.004389910105432695</v>
+        <v>0.08327605594715239</v>
       </c>
       <c r="J19">
-        <v>0.004389910105432695</v>
+        <v>0.08327605594715239</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.01197066666666667</v>
+        <v>11.28242366666667</v>
       </c>
       <c r="N19">
-        <v>0.035912</v>
+        <v>33.847271</v>
       </c>
       <c r="O19">
-        <v>9.446023421282504E-05</v>
+        <v>0.1339976544996382</v>
       </c>
       <c r="P19">
-        <v>9.446023421282504E-05</v>
+        <v>0.1339976544996382</v>
       </c>
       <c r="Q19">
-        <v>0.02106903970044445</v>
+        <v>457.9864348085252</v>
       </c>
       <c r="R19">
-        <v>0.189621357304</v>
+        <v>4121.877913276727</v>
       </c>
       <c r="S19">
-        <v>4.146719367324198E-07</v>
+        <v>0.01115879617289907</v>
       </c>
       <c r="T19">
-        <v>4.146719367324198E-07</v>
+        <v>0.01115879617289907</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,7 +1650,7 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.760055666666667</v>
+        <v>0.642691</v>
       </c>
       <c r="H20">
-        <v>5.280167</v>
+        <v>1.928073</v>
       </c>
       <c r="I20">
-        <v>0.004389910105432695</v>
+        <v>0.001318475778067841</v>
       </c>
       <c r="J20">
-        <v>0.004389910105432695</v>
+        <v>0.001318475778067841</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>40.17406266666666</v>
+        <v>0.07093033333333333</v>
       </c>
       <c r="N20">
-        <v>120.522188</v>
+        <v>0.212791</v>
       </c>
       <c r="O20">
-        <v>0.3170125335910596</v>
+        <v>0.0008424163619759039</v>
       </c>
       <c r="P20">
-        <v>0.3170125335910596</v>
+        <v>0.0008424163619759041</v>
       </c>
       <c r="Q20">
-        <v>70.70858664948845</v>
+        <v>0.04558628686033334</v>
       </c>
       <c r="R20">
-        <v>636.3772798453961</v>
+        <v>0.410276581743</v>
       </c>
       <c r="S20">
-        <v>0.001391656524760214</v>
+        <v>1.11070556831326E-06</v>
       </c>
       <c r="T20">
-        <v>0.001391656524760214</v>
+        <v>1.11070556831326E-06</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -1721,51 +1721,51 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.760055666666667</v>
+        <v>0.642691</v>
       </c>
       <c r="H21">
-        <v>5.280167</v>
+        <v>1.928073</v>
       </c>
       <c r="I21">
-        <v>0.004389910105432695</v>
+        <v>0.001318475778067841</v>
       </c>
       <c r="J21">
-        <v>0.004389910105432695</v>
+        <v>0.001318475778067841</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>54.17663333333333</v>
+        <v>0.020618</v>
       </c>
       <c r="N21">
-        <v>162.5299</v>
+        <v>0.061854</v>
       </c>
       <c r="O21">
-        <v>0.4275064719477343</v>
+        <v>0.00024487324019182</v>
       </c>
       <c r="P21">
-        <v>0.4275064719477343</v>
+        <v>0.00024487324019182</v>
       </c>
       <c r="Q21">
-        <v>95.35389049925557</v>
+        <v>0.013251003038</v>
       </c>
       <c r="R21">
-        <v>858.1850144933001</v>
+        <v>0.119259027342</v>
       </c>
       <c r="S21">
-        <v>0.001876714981341238</v>
+        <v>3.228594358899031E-07</v>
       </c>
       <c r="T21">
-        <v>0.001876714981341238</v>
+        <v>3.228594358899031E-07</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,7 +1774,7 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -1783,51 +1783,51 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>266.7063343333334</v>
+        <v>0.642691</v>
       </c>
       <c r="H22">
-        <v>800.119003</v>
+        <v>1.928073</v>
       </c>
       <c r="I22">
-        <v>0.6652157965493199</v>
+        <v>0.001318475778067841</v>
       </c>
       <c r="J22">
-        <v>0.6652157965493198</v>
+        <v>0.001318475778067841</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.020618</v>
+        <v>13.60839533333333</v>
       </c>
       <c r="N22">
-        <v>0.061854</v>
+        <v>40.825186</v>
       </c>
       <c r="O22">
-        <v>0.000162696127394745</v>
+        <v>0.1616224589719941</v>
       </c>
       <c r="P22">
-        <v>0.0001626961273947449</v>
+        <v>0.1616224589719942</v>
       </c>
       <c r="Q22">
-        <v>5.498951201284667</v>
+        <v>8.745993205175335</v>
       </c>
       <c r="R22">
-        <v>49.490560811562</v>
+        <v>78.713938846578</v>
       </c>
       <c r="S22">
-        <v>0.0001082280339803849</v>
+        <v>0.0002130952973463377</v>
       </c>
       <c r="T22">
-        <v>0.0001082280339803849</v>
+        <v>0.0002130952973463377</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,7 +1836,7 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -1845,61 +1845,61 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>266.7063343333334</v>
+        <v>0.642691</v>
       </c>
       <c r="H23">
-        <v>800.119003</v>
+        <v>1.928073</v>
       </c>
       <c r="I23">
-        <v>0.6652157965493199</v>
+        <v>0.001318475778067841</v>
       </c>
       <c r="J23">
-        <v>0.6652157965493198</v>
+        <v>0.001318475778067841</v>
       </c>
       <c r="K23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M23">
-        <v>32.34376366666667</v>
+        <v>0.005178666666666666</v>
       </c>
       <c r="N23">
-        <v>97.031291</v>
+        <v>0.015536</v>
       </c>
       <c r="O23">
-        <v>0.2552238380995986</v>
+        <v>6.150532964109216E-05</v>
       </c>
       <c r="P23">
-        <v>0.2552238380995985</v>
+        <v>6.150532964109217E-05</v>
       </c>
       <c r="Q23">
-        <v>8626.28664608032</v>
+        <v>0.003328282458666667</v>
       </c>
       <c r="R23">
-        <v>77636.57981472288</v>
+        <v>0.029954542128</v>
       </c>
       <c r="S23">
-        <v>0.1697789287597991</v>
+        <v>8.109328735385801E-08</v>
       </c>
       <c r="T23">
-        <v>0.1697789287597991</v>
+        <v>8.109328735385804E-08</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
       <c r="E24">
         <v>3</v>
       </c>
@@ -1907,51 +1907,51 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>266.7063343333334</v>
+        <v>0.642691</v>
       </c>
       <c r="H24">
-        <v>800.119003</v>
+        <v>1.928073</v>
       </c>
       <c r="I24">
-        <v>0.6652157965493199</v>
+        <v>0.001318475778067841</v>
       </c>
       <c r="J24">
-        <v>0.6652157965493198</v>
+        <v>0.001318475778067841</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.01197066666666667</v>
+        <v>59.21111933333333</v>
       </c>
       <c r="N24">
-        <v>0.035912</v>
+        <v>177.633358</v>
       </c>
       <c r="O24">
-        <v>9.446023421282504E-05</v>
+        <v>0.7032310915965587</v>
       </c>
       <c r="P24">
-        <v>9.446023421282504E-05</v>
+        <v>0.7032310915965588</v>
       </c>
       <c r="Q24">
-        <v>3.192652626192889</v>
+        <v>38.05445349545933</v>
       </c>
       <c r="R24">
-        <v>28.733873635736</v>
+        <v>342.490081459134</v>
       </c>
       <c r="S24">
-        <v>6.283643994411973E-05</v>
+        <v>0.0009271931606542698</v>
       </c>
       <c r="T24">
-        <v>6.283643994411971E-05</v>
+        <v>0.0009271931606542699</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,7 +1960,7 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>266.7063343333334</v>
+        <v>0.642691</v>
       </c>
       <c r="H25">
-        <v>800.119003</v>
+        <v>1.928073</v>
       </c>
       <c r="I25">
-        <v>0.6652157965493199</v>
+        <v>0.001318475778067841</v>
       </c>
       <c r="J25">
-        <v>0.6652157965493198</v>
+        <v>0.001318475778067841</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>40.17406266666666</v>
+        <v>11.28242366666667</v>
       </c>
       <c r="N25">
-        <v>120.522188</v>
+        <v>33.847271</v>
       </c>
       <c r="O25">
-        <v>0.3170125335910596</v>
+        <v>0.1339976544996382</v>
       </c>
       <c r="P25">
-        <v>0.3170125335910596</v>
+        <v>0.1339976544996382</v>
       </c>
       <c r="Q25">
-        <v>10714.67698910429</v>
+        <v>7.251112148753666</v>
       </c>
       <c r="R25">
-        <v>96432.09290193857</v>
+        <v>65.26000933878299</v>
       </c>
       <c r="S25">
-        <v>0.2108817450488947</v>
+        <v>0.0001766726617756762</v>
       </c>
       <c r="T25">
-        <v>0.2108817450488947</v>
+        <v>0.0001766726617756762</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,7 +2022,7 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -2031,51 +2031,51 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>266.7063343333334</v>
+        <v>390.8377786666667</v>
       </c>
       <c r="H26">
-        <v>800.119003</v>
+        <v>1172.513336</v>
       </c>
       <c r="I26">
-        <v>0.6652157965493199</v>
+        <v>0.8018007787970267</v>
       </c>
       <c r="J26">
-        <v>0.6652157965493198</v>
+        <v>0.8018007787970267</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>54.17663333333333</v>
+        <v>0.07093033333333333</v>
       </c>
       <c r="N26">
-        <v>162.5299</v>
+        <v>0.212791</v>
       </c>
       <c r="O26">
-        <v>0.4275064719477343</v>
+        <v>0.0008424163619759039</v>
       </c>
       <c r="P26">
-        <v>0.4275064719477343</v>
+        <v>0.0008424163619759041</v>
       </c>
       <c r="Q26">
-        <v>14449.25128285441</v>
+        <v>27.72225392008622</v>
       </c>
       <c r="R26">
-        <v>130043.2615456897</v>
+        <v>249.500285280776</v>
       </c>
       <c r="S26">
-        <v>0.2843840582667016</v>
+        <v>0.0006754500951036377</v>
       </c>
       <c r="T26">
-        <v>0.2843840582667015</v>
+        <v>0.0006754500951036379</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>51.213492</v>
+        <v>390.8377786666667</v>
       </c>
       <c r="H27">
-        <v>153.640476</v>
+        <v>1172.513336</v>
       </c>
       <c r="I27">
-        <v>0.1277360883085496</v>
+        <v>0.8018007787970267</v>
       </c>
       <c r="J27">
-        <v>0.1277360883085496</v>
+        <v>0.8018007787970267</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -2117,27 +2117,27 @@
         <v>0.061854</v>
       </c>
       <c r="O27">
-        <v>0.000162696127394745</v>
+        <v>0.00024487324019182</v>
       </c>
       <c r="P27">
-        <v>0.0001626961273947449</v>
+        <v>0.00024487324019182</v>
       </c>
       <c r="Q27">
-        <v>1.055919778056</v>
+        <v>8.058293320549334</v>
       </c>
       <c r="R27">
-        <v>9.503278002504</v>
+        <v>72.52463988494399</v>
       </c>
       <c r="S27">
-        <v>2.078216689635418E-05</v>
+        <v>0.0001963395546923526</v>
       </c>
       <c r="T27">
-        <v>2.078216689635417E-05</v>
+        <v>0.0001963395546923526</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>51.213492</v>
+        <v>390.8377786666667</v>
       </c>
       <c r="H28">
-        <v>153.640476</v>
+        <v>1172.513336</v>
       </c>
       <c r="I28">
-        <v>0.1277360883085496</v>
+        <v>0.8018007787970267</v>
       </c>
       <c r="J28">
-        <v>0.1277360883085496</v>
+        <v>0.8018007787970267</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,33 +2173,33 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>32.34376366666667</v>
+        <v>13.60839533333333</v>
       </c>
       <c r="N28">
-        <v>97.031291</v>
+        <v>40.825186</v>
       </c>
       <c r="O28">
-        <v>0.2552238380995986</v>
+        <v>0.1616224589719941</v>
       </c>
       <c r="P28">
-        <v>0.2552238380995985</v>
+        <v>0.1616224589719942</v>
       </c>
       <c r="Q28">
-        <v>1656.437081792724</v>
+        <v>5318.675003297833</v>
       </c>
       <c r="R28">
-        <v>14907.93373613452</v>
+        <v>47868.0750296805</v>
       </c>
       <c r="S28">
-        <v>0.03260129472193729</v>
+        <v>0.1295890134748354</v>
       </c>
       <c r="T28">
-        <v>0.03260129472193728</v>
+        <v>0.1295890134748354</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>51.213492</v>
+        <v>390.8377786666667</v>
       </c>
       <c r="H29">
-        <v>153.640476</v>
+        <v>1172.513336</v>
       </c>
       <c r="I29">
-        <v>0.1277360883085496</v>
+        <v>0.8018007787970267</v>
       </c>
       <c r="J29">
-        <v>0.1277360883085496</v>
+        <v>0.8018007787970267</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -2235,33 +2235,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M29">
-        <v>0.01197066666666667</v>
+        <v>0.005178666666666666</v>
       </c>
       <c r="N29">
-        <v>0.035912</v>
+        <v>0.015536</v>
       </c>
       <c r="O29">
-        <v>9.446023421282504E-05</v>
+        <v>6.150532964109216E-05</v>
       </c>
       <c r="P29">
-        <v>9.446023421282504E-05</v>
+        <v>6.150532964109217E-05</v>
       </c>
       <c r="Q29">
-        <v>0.613059641568</v>
+        <v>2.024018576455111</v>
       </c>
       <c r="R29">
-        <v>5.517536774112</v>
+        <v>18.216167188096</v>
       </c>
       <c r="S29">
-        <v>1.20659808190557E-05</v>
+        <v>4.931502120639554E-05</v>
       </c>
       <c r="T29">
-        <v>1.20659808190557E-05</v>
+        <v>4.931502120639556E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>51.213492</v>
+        <v>390.8377786666667</v>
       </c>
       <c r="H30">
-        <v>153.640476</v>
+        <v>1172.513336</v>
       </c>
       <c r="I30">
-        <v>0.1277360883085496</v>
+        <v>0.8018007787970267</v>
       </c>
       <c r="J30">
-        <v>0.1277360883085496</v>
+        <v>0.8018007787970267</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,33 +2297,33 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>40.17406266666666</v>
+        <v>59.21111933333333</v>
       </c>
       <c r="N30">
-        <v>120.522188</v>
+        <v>177.633358</v>
       </c>
       <c r="O30">
-        <v>0.3170125335910596</v>
+        <v>0.7032310915965587</v>
       </c>
       <c r="P30">
-        <v>0.3170125335910596</v>
+        <v>0.7032310915965588</v>
       </c>
       <c r="Q30">
-        <v>2057.454036986832</v>
+        <v>23141.94235260692</v>
       </c>
       <c r="R30">
-        <v>18517.08633288149</v>
+        <v>208277.4811734623</v>
       </c>
       <c r="S30">
-        <v>0.04049394098570464</v>
+        <v>0.563851236916404</v>
       </c>
       <c r="T30">
-        <v>0.04049394098570464</v>
+        <v>0.5638512369164042</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>51.213492</v>
+        <v>390.8377786666667</v>
       </c>
       <c r="H31">
-        <v>153.640476</v>
+        <v>1172.513336</v>
       </c>
       <c r="I31">
-        <v>0.1277360883085496</v>
+        <v>0.8018007787970267</v>
       </c>
       <c r="J31">
-        <v>0.1277360883085496</v>
+        <v>0.8018007787970267</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,400 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>54.17663333333333</v>
+        <v>11.28242366666667</v>
       </c>
       <c r="N31">
-        <v>162.5299</v>
+        <v>33.847271</v>
       </c>
       <c r="O31">
-        <v>0.4275064719477343</v>
+        <v>0.1339976544996382</v>
       </c>
       <c r="P31">
-        <v>0.4275064719477343</v>
+        <v>0.1339976544996382</v>
       </c>
       <c r="Q31">
-        <v>2774.5745778036</v>
+        <v>4409.597403856228</v>
       </c>
       <c r="R31">
-        <v>24971.1712002324</v>
+        <v>39686.37663470605</v>
       </c>
       <c r="S31">
-        <v>0.05460800445319228</v>
+        <v>0.1074394237347848</v>
       </c>
       <c r="T31">
-        <v>0.05460800445319227</v>
+        <v>0.1074394237347849</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>18.287273</v>
+      </c>
+      <c r="H32">
+        <v>54.861819</v>
+      </c>
+      <c r="I32">
+        <v>0.03751620373929931</v>
+      </c>
+      <c r="J32">
+        <v>0.03751620373929931</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M32">
+        <v>0.07093033333333333</v>
+      </c>
+      <c r="N32">
+        <v>0.212791</v>
+      </c>
+      <c r="O32">
+        <v>0.0008424163619759039</v>
+      </c>
+      <c r="P32">
+        <v>0.0008424163619759041</v>
+      </c>
+      <c r="Q32">
+        <v>1.297122369647667</v>
+      </c>
+      <c r="R32">
+        <v>11.674101326829</v>
+      </c>
+      <c r="S32">
+        <v>3.160426386920733E-05</v>
+      </c>
+      <c r="T32">
+        <v>3.160426386920734E-05</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>18.287273</v>
+      </c>
+      <c r="H33">
+        <v>54.861819</v>
+      </c>
+      <c r="I33">
+        <v>0.03751620373929931</v>
+      </c>
+      <c r="J33">
+        <v>0.03751620373929931</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M33">
+        <v>0.020618</v>
+      </c>
+      <c r="N33">
+        <v>0.061854</v>
+      </c>
+      <c r="O33">
+        <v>0.00024487324019182</v>
+      </c>
+      <c r="P33">
+        <v>0.00024487324019182</v>
+      </c>
+      <c r="Q33">
+        <v>0.377046994714</v>
+      </c>
+      <c r="R33">
+        <v>3.393422952426</v>
+      </c>
+      <c r="S33">
+        <v>9.186714369338696E-06</v>
+      </c>
+      <c r="T33">
+        <v>9.186714369338696E-06</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>18.287273</v>
+      </c>
+      <c r="H34">
+        <v>54.861819</v>
+      </c>
+      <c r="I34">
+        <v>0.03751620373929931</v>
+      </c>
+      <c r="J34">
+        <v>0.03751620373929931</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>13.60839533333333</v>
+      </c>
+      <c r="N34">
+        <v>40.825186</v>
+      </c>
+      <c r="O34">
+        <v>0.1616224589719941</v>
+      </c>
+      <c r="P34">
+        <v>0.1616224589719942</v>
+      </c>
+      <c r="Q34">
+        <v>248.8604405525927</v>
+      </c>
+      <c r="R34">
+        <v>2239.743964973334</v>
+      </c>
+      <c r="S34">
+        <v>0.006063461099639877</v>
+      </c>
+      <c r="T34">
+        <v>0.006063461099639878</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>18.287273</v>
+      </c>
+      <c r="H35">
+        <v>54.861819</v>
+      </c>
+      <c r="I35">
+        <v>0.03751620373929931</v>
+      </c>
+      <c r="J35">
+        <v>0.03751620373929931</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M35">
+        <v>0.005178666666666666</v>
+      </c>
+      <c r="N35">
+        <v>0.015536</v>
+      </c>
+      <c r="O35">
+        <v>6.150532964109216E-05</v>
+      </c>
+      <c r="P35">
+        <v>6.150532964109217E-05</v>
+      </c>
+      <c r="Q35">
+        <v>0.09470369110933333</v>
+      </c>
+      <c r="R35">
+        <v>0.8523332199839999</v>
+      </c>
+      <c r="S35">
+        <v>2.307446477867979E-06</v>
+      </c>
+      <c r="T35">
+        <v>2.307446477867979E-06</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>18.287273</v>
+      </c>
+      <c r="H36">
+        <v>54.861819</v>
+      </c>
+      <c r="I36">
+        <v>0.03751620373929931</v>
+      </c>
+      <c r="J36">
+        <v>0.03751620373929931</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>59.21111933333333</v>
+      </c>
+      <c r="N36">
+        <v>177.633358</v>
+      </c>
+      <c r="O36">
+        <v>0.7032310915965587</v>
+      </c>
+      <c r="P36">
+        <v>0.7032310915965588</v>
+      </c>
+      <c r="Q36">
+        <v>1082.809903884244</v>
+      </c>
+      <c r="R36">
+        <v>9745.289134958201</v>
+      </c>
+      <c r="S36">
+        <v>0.02638256090814636</v>
+      </c>
+      <c r="T36">
+        <v>0.02638256090814636</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>18.287273</v>
+      </c>
+      <c r="H37">
+        <v>54.861819</v>
+      </c>
+      <c r="I37">
+        <v>0.03751620373929931</v>
+      </c>
+      <c r="J37">
+        <v>0.03751620373929931</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>11.28242366666667</v>
+      </c>
+      <c r="N37">
+        <v>33.847271</v>
+      </c>
+      <c r="O37">
+        <v>0.1339976544996382</v>
+      </c>
+      <c r="P37">
+        <v>0.1339976544996382</v>
+      </c>
+      <c r="Q37">
+        <v>206.3247616939943</v>
+      </c>
+      <c r="R37">
+        <v>1856.922855245949</v>
+      </c>
+      <c r="S37">
+        <v>0.005027083306796664</v>
+      </c>
+      <c r="T37">
+        <v>0.005027083306796666</v>
       </c>
     </row>
   </sheetData>
